--- a/data/pca/factorExposure/factorExposure_2014-07-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-07-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,21 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +732,60 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.005382314819172214</v>
+        <v>0.02051459565002418</v>
       </c>
       <c r="C2">
-        <v>0.1501894027261092</v>
+        <v>0.0718333429922199</v>
       </c>
       <c r="D2">
-        <v>-0.03603805711423663</v>
+        <v>0.033049888681246</v>
       </c>
       <c r="E2">
-        <v>-0.2304996094911993</v>
+        <v>0.01233674059348846</v>
       </c>
       <c r="F2">
-        <v>0.07560900377813427</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.01003485939290021</v>
+      </c>
+      <c r="G2">
+        <v>0.1554845909333858</v>
+      </c>
+      <c r="H2">
+        <v>-0.01231256683754959</v>
+      </c>
+      <c r="I2">
+        <v>0.04043847880589525</v>
+      </c>
+      <c r="J2">
+        <v>-0.1266534353355252</v>
+      </c>
+      <c r="K2">
+        <v>-0.08100791561644165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +802,60 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.01742216471840535</v>
+        <v>0.02209831055008496</v>
       </c>
       <c r="C4">
-        <v>0.1706188282605223</v>
+        <v>0.1398045272945851</v>
       </c>
       <c r="D4">
-        <v>-0.05130999977668987</v>
+        <v>0.06416155882593225</v>
       </c>
       <c r="E4">
-        <v>-0.03465526902010512</v>
+        <v>0.01215471589140815</v>
       </c>
       <c r="F4">
-        <v>-0.07358038643721816</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.05705273128953469</v>
+      </c>
+      <c r="G4">
+        <v>0.03277224779322854</v>
+      </c>
+      <c r="H4">
+        <v>0.01881544697211615</v>
+      </c>
+      <c r="I4">
+        <v>-0.03352080200129749</v>
+      </c>
+      <c r="J4">
+        <v>-0.09846368920507993</v>
+      </c>
+      <c r="K4">
+        <v>-0.0181148363415852</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +872,410 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.03822271623538532</v>
+        <v>0.04241129019479314</v>
       </c>
       <c r="C6">
-        <v>0.07189579450473593</v>
+        <v>0.08523434549313869</v>
       </c>
       <c r="D6">
-        <v>-0.07470294746534253</v>
+        <v>0.02753493492650857</v>
       </c>
       <c r="E6">
-        <v>-0.03024099250324555</v>
+        <v>-0.01797589956525027</v>
       </c>
       <c r="F6">
-        <v>0.009134187858910341</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.01879025744067635</v>
+      </c>
+      <c r="G6">
+        <v>0.04237316105145784</v>
+      </c>
+      <c r="H6">
+        <v>0.03420736743239064</v>
+      </c>
+      <c r="I6">
+        <v>-0.07845381529831189</v>
+      </c>
+      <c r="J6">
+        <v>-0.001619470188372518</v>
+      </c>
+      <c r="K6">
+        <v>-0.06812455277011313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.01943320285439705</v>
+        <v>0.02116571710912577</v>
       </c>
       <c r="C7">
-        <v>0.08073612391121072</v>
+        <v>0.07369700989454864</v>
       </c>
       <c r="D7">
-        <v>-0.04615774812322171</v>
+        <v>0.03216952519456157</v>
       </c>
       <c r="E7">
-        <v>0.003490160258330027</v>
+        <v>-0.0159102978828786</v>
       </c>
       <c r="F7">
-        <v>0.01533328756416438</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.006139300457706582</v>
+      </c>
+      <c r="G7">
+        <v>-0.01831124690993836</v>
+      </c>
+      <c r="H7">
+        <v>0.02061575618094093</v>
+      </c>
+      <c r="I7">
+        <v>-0.01512947478616601</v>
+      </c>
+      <c r="J7">
+        <v>-0.1071501475160035</v>
+      </c>
+      <c r="K7">
+        <v>-0.01981450280360738</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.01270192949698873</v>
+        <v>0.002195911293389384</v>
       </c>
       <c r="C8">
-        <v>0.07193544425831744</v>
+        <v>0.06130080723387723</v>
       </c>
       <c r="D8">
-        <v>-0.02157845701530608</v>
+        <v>0.0436645076374793</v>
       </c>
       <c r="E8">
-        <v>-0.08069990516644465</v>
+        <v>-0.02653027269453944</v>
       </c>
       <c r="F8">
-        <v>-0.01120125293751909</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02782836453433139</v>
+      </c>
+      <c r="G8">
+        <v>0.06094145672244534</v>
+      </c>
+      <c r="H8">
+        <v>0.05507305941491499</v>
+      </c>
+      <c r="I8">
+        <v>-0.02207812901067906</v>
+      </c>
+      <c r="J8">
+        <v>-0.02655927977874712</v>
+      </c>
+      <c r="K8">
+        <v>0.01376042872020584</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.008286525796066717</v>
+        <v>0.01431313440282237</v>
       </c>
       <c r="C9">
-        <v>0.1192052215908952</v>
+        <v>0.09807089500221433</v>
       </c>
       <c r="D9">
-        <v>-0.05789071585057937</v>
+        <v>0.04065991766933057</v>
       </c>
       <c r="E9">
-        <v>0.001406971367995505</v>
+        <v>0.02655617142668176</v>
       </c>
       <c r="F9">
-        <v>-0.0114514127529984</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.02305517280761599</v>
+      </c>
+      <c r="G9">
+        <v>0.02080642829201721</v>
+      </c>
+      <c r="H9">
+        <v>0.03455108758321334</v>
+      </c>
+      <c r="I9">
+        <v>-0.01104077304626909</v>
+      </c>
+      <c r="J9">
+        <v>-0.1049506469439181</v>
+      </c>
+      <c r="K9">
+        <v>-0.02379962529263457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.253568069561218</v>
+        <v>0.2421973962097035</v>
       </c>
       <c r="C10">
-        <v>-0.07858378503904422</v>
+        <v>-0.1033502746672784</v>
       </c>
       <c r="D10">
-        <v>0.03318355170098999</v>
+        <v>-0.007919474119258108</v>
       </c>
       <c r="E10">
-        <v>0.01951214822961655</v>
+        <v>-0.0507640826792147</v>
       </c>
       <c r="F10">
-        <v>-0.04017187061977798</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.0006911826596309138</v>
+      </c>
+      <c r="G10">
+        <v>0.01910566733490504</v>
+      </c>
+      <c r="H10">
+        <v>0.02821486028677248</v>
+      </c>
+      <c r="I10">
+        <v>-0.0523873067212768</v>
+      </c>
+      <c r="J10">
+        <v>-0.01532846687621824</v>
+      </c>
+      <c r="K10">
+        <v>0.1490944573259713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.007322892030641385</v>
+        <v>0.01894263056920532</v>
       </c>
       <c r="C11">
-        <v>0.06771985691602946</v>
+        <v>0.07914571765473281</v>
       </c>
       <c r="D11">
-        <v>-0.03718983198769658</v>
+        <v>0.04197824521484615</v>
       </c>
       <c r="E11">
-        <v>0.03593046284291221</v>
+        <v>0.01377923057283384</v>
       </c>
       <c r="F11">
-        <v>-0.004278297006677307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.001172260954423202</v>
+      </c>
+      <c r="G11">
+        <v>-0.01112120084111166</v>
+      </c>
+      <c r="H11">
+        <v>0.01825336838912242</v>
+      </c>
+      <c r="I11">
+        <v>0.0008958805031924894</v>
+      </c>
+      <c r="J11">
+        <v>-0.02821156567903393</v>
+      </c>
+      <c r="K11">
+        <v>-0.02438563904731508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.006909041729235001</v>
+        <v>0.01793061521615968</v>
       </c>
       <c r="C12">
-        <v>0.04595247785795535</v>
+        <v>0.05211613417928914</v>
       </c>
       <c r="D12">
-        <v>-0.03786369678598177</v>
+        <v>0.02596479438915759</v>
       </c>
       <c r="E12">
-        <v>0.02870059134790542</v>
+        <v>0.007695206098122885</v>
       </c>
       <c r="F12">
-        <v>0.0167330424698122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.0183605647757831</v>
+      </c>
+      <c r="G12">
+        <v>0.0001735682389682938</v>
+      </c>
+      <c r="H12">
+        <v>0.01615640177129881</v>
+      </c>
+      <c r="I12">
+        <v>-0.0220301982545983</v>
+      </c>
+      <c r="J12">
+        <v>-0.02505727395114025</v>
+      </c>
+      <c r="K12">
+        <v>-0.01085257421618422</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.001646336278778625</v>
+        <v>0.008257559717246565</v>
       </c>
       <c r="C13">
-        <v>0.1150937400453795</v>
+        <v>0.1091518468693651</v>
       </c>
       <c r="D13">
-        <v>-0.05554714359795333</v>
+        <v>0.04442344036356311</v>
       </c>
       <c r="E13">
-        <v>-0.07448429779531465</v>
+        <v>-0.003059101361788368</v>
       </c>
       <c r="F13">
-        <v>0.08620941706112442</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.03865093627755403</v>
+      </c>
+      <c r="G13">
+        <v>0.156154965367341</v>
+      </c>
+      <c r="H13">
+        <v>-0.05658398619428315</v>
+      </c>
+      <c r="I13">
+        <v>-0.06151420614993972</v>
+      </c>
+      <c r="J13">
+        <v>-0.2220638022695096</v>
+      </c>
+      <c r="K13">
+        <v>0.2033529661589051</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.009236051855120863</v>
+        <v>0.02259789952070548</v>
       </c>
       <c r="C14">
-        <v>0.08275935357825287</v>
+        <v>0.07267634238250915</v>
       </c>
       <c r="D14">
-        <v>-0.05272564475461356</v>
+        <v>0.0459576298594802</v>
       </c>
       <c r="E14">
-        <v>-0.005709062911667088</v>
+        <v>-0.01417461651624228</v>
       </c>
       <c r="F14">
-        <v>0.04026787730514303</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03544563824986336</v>
+      </c>
+      <c r="G14">
+        <v>0.02177735760640026</v>
+      </c>
+      <c r="H14">
+        <v>0.06785536591906249</v>
+      </c>
+      <c r="I14">
+        <v>-0.09136963434472842</v>
+      </c>
+      <c r="J14">
+        <v>-0.1793587789774838</v>
+      </c>
+      <c r="K14">
+        <v>0.008786656767647503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.004975132248859803</v>
+        <v>0.00401345345366556</v>
       </c>
       <c r="C15">
-        <v>0.07743379176867717</v>
+        <v>0.07085604317014127</v>
       </c>
       <c r="D15">
-        <v>-0.0292075607968087</v>
+        <v>0.03228432844691666</v>
       </c>
       <c r="E15">
-        <v>-0.01516256195469508</v>
+        <v>0.01022532850900321</v>
       </c>
       <c r="F15">
-        <v>-0.002538376491516469</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>-0.03532368584577627</v>
+      </c>
+      <c r="G15">
+        <v>0.01449462890819681</v>
+      </c>
+      <c r="H15">
+        <v>0.04460610732042176</v>
+      </c>
+      <c r="I15">
+        <v>-0.0346876896202018</v>
+      </c>
+      <c r="J15">
+        <v>-0.06769662136280755</v>
+      </c>
+      <c r="K15">
+        <v>-0.01605285775732298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.007904129988838757</v>
+        <v>0.01757984132469221</v>
       </c>
       <c r="C16">
-        <v>0.05421334885503745</v>
+        <v>0.06033917484188248</v>
       </c>
       <c r="D16">
-        <v>-0.02907790398810858</v>
+        <v>0.02689898696772322</v>
       </c>
       <c r="E16">
-        <v>0.02260198808085233</v>
+        <v>0.008453292906702364</v>
       </c>
       <c r="F16">
-        <v>0.002792638816794186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.0002776301125816032</v>
+      </c>
+      <c r="G16">
+        <v>-0.006665489523675304</v>
+      </c>
+      <c r="H16">
+        <v>0.009528657977245605</v>
+      </c>
+      <c r="I16">
+        <v>-0.006388071123967332</v>
+      </c>
+      <c r="J16">
+        <v>-0.02263089274529347</v>
+      </c>
+      <c r="K16">
+        <v>-0.02087411067845494</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1292,25 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1327,25 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1362,270 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.01179990353738044</v>
+        <v>0.0173796403504216</v>
       </c>
       <c r="C20">
-        <v>0.09621187220299023</v>
+        <v>0.08595995910463763</v>
       </c>
       <c r="D20">
-        <v>-0.0447892700886801</v>
+        <v>0.02761313112212577</v>
       </c>
       <c r="E20">
-        <v>0.05485943490783942</v>
+        <v>0.0004578882039514942</v>
       </c>
       <c r="F20">
-        <v>0.004755859002621546</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01485466584114569</v>
+      </c>
+      <c r="G20">
+        <v>-0.0208851903384402</v>
+      </c>
+      <c r="H20">
+        <v>0.04702073263610005</v>
+      </c>
+      <c r="I20">
+        <v>-0.03268259975566417</v>
+      </c>
+      <c r="J20">
+        <v>-0.05724786576045203</v>
+      </c>
+      <c r="K20">
+        <v>-0.01406525103414304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.00874156614039865</v>
+        <v>0.01454785707009234</v>
       </c>
       <c r="C21">
-        <v>0.07719888969590789</v>
+        <v>0.06830202927823396</v>
       </c>
       <c r="D21">
-        <v>-0.004016358336195285</v>
+        <v>0.01693454055510189</v>
       </c>
       <c r="E21">
-        <v>-0.0227840523925696</v>
+        <v>-0.02475253114319678</v>
       </c>
       <c r="F21">
-        <v>0.09840626333336598</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.07080046026938051</v>
+      </c>
+      <c r="G21">
+        <v>0.05864814203111168</v>
+      </c>
+      <c r="H21">
+        <v>0.05210220322636428</v>
+      </c>
+      <c r="I21">
+        <v>-0.0222769158930702</v>
+      </c>
+      <c r="J21">
+        <v>-0.1263234201490372</v>
+      </c>
+      <c r="K21">
+        <v>0.02192198042716817</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.003331531394617829</v>
+        <v>0.009576289408349399</v>
       </c>
       <c r="C22">
-        <v>0.2609910923584972</v>
+        <v>0.1689312680510317</v>
       </c>
       <c r="D22">
-        <v>0.08718741826377847</v>
+        <v>0.01966900201109366</v>
       </c>
       <c r="E22">
-        <v>-0.3587690620386299</v>
+        <v>-0.03021308719059534</v>
       </c>
       <c r="F22">
-        <v>-0.2531570102734381</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>-0.3323635887287682</v>
+      </c>
+      <c r="G22">
+        <v>0.4040697069673391</v>
+      </c>
+      <c r="H22">
+        <v>-0.2500552705005145</v>
+      </c>
+      <c r="I22">
+        <v>0.05850434966412178</v>
+      </c>
+      <c r="J22">
+        <v>0.2393056585409658</v>
+      </c>
+      <c r="K22">
+        <v>0.0003387720398521232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.002273604309067812</v>
+        <v>0.01471094163456426</v>
       </c>
       <c r="C23">
-        <v>0.2642988607639711</v>
+        <v>0.1719675083392475</v>
       </c>
       <c r="D23">
-        <v>0.09196027249921848</v>
+        <v>0.019408209503627</v>
       </c>
       <c r="E23">
-        <v>-0.3525659114028217</v>
+        <v>-0.02665715305534595</v>
       </c>
       <c r="F23">
-        <v>-0.2504697717644705</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>-0.3221552874177691</v>
+      </c>
+      <c r="G23">
+        <v>0.3936797797869716</v>
+      </c>
+      <c r="H23">
+        <v>-0.236981737780754</v>
+      </c>
+      <c r="I23">
+        <v>0.05680311072546532</v>
+      </c>
+      <c r="J23">
+        <v>0.22055491298547</v>
+      </c>
+      <c r="K23">
+        <v>-0.004927056368887774</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.005865117618621364</v>
+        <v>0.01821550748412087</v>
       </c>
       <c r="C24">
-        <v>0.06012178540115088</v>
+        <v>0.06392250798831747</v>
       </c>
       <c r="D24">
-        <v>-0.0481863508354251</v>
+        <v>0.04089488911583494</v>
       </c>
       <c r="E24">
-        <v>0.02810609832042544</v>
+        <v>0.01401456765446462</v>
       </c>
       <c r="F24">
-        <v>-0.0005365991078386476</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.0007275081757476734</v>
+      </c>
+      <c r="G24">
+        <v>-0.008050360801841855</v>
+      </c>
+      <c r="H24">
+        <v>0.01669240468629643</v>
+      </c>
+      <c r="I24">
+        <v>-0.01492844160379737</v>
+      </c>
+      <c r="J24">
+        <v>-0.03941668680858288</v>
+      </c>
+      <c r="K24">
+        <v>-0.02190948291791643</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.007545943637639486</v>
+        <v>0.02310516591104839</v>
       </c>
       <c r="C25">
-        <v>0.06416082044883221</v>
+        <v>0.06747515802743433</v>
       </c>
       <c r="D25">
-        <v>-0.02647798617476353</v>
+        <v>0.03418603527798107</v>
       </c>
       <c r="E25">
-        <v>0.03193808990241266</v>
+        <v>0.0188437449059446</v>
       </c>
       <c r="F25">
-        <v>0.005891641800732698</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.002738914771667946</v>
+      </c>
+      <c r="G25">
+        <v>-0.005755454511651721</v>
+      </c>
+      <c r="H25">
+        <v>0.01789649927033507</v>
+      </c>
+      <c r="I25">
+        <v>-0.004380417610029365</v>
+      </c>
+      <c r="J25">
+        <v>-0.03599323881498094</v>
+      </c>
+      <c r="K25">
+        <v>-0.008831415895595536</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.009868736649360912</v>
+        <v>0.0235441946606306</v>
       </c>
       <c r="C26">
-        <v>0.04614940812364288</v>
+        <v>0.05239024990931459</v>
       </c>
       <c r="D26">
-        <v>-0.08440620095843566</v>
+        <v>0.06198943758422339</v>
       </c>
       <c r="E26">
-        <v>0.02055890438113911</v>
+        <v>0.005870514012963705</v>
       </c>
       <c r="F26">
-        <v>0.03157392668861576</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.00511115870903907</v>
+      </c>
+      <c r="G26">
+        <v>-0.01118205225293521</v>
+      </c>
+      <c r="H26">
+        <v>0.0358514792439867</v>
+      </c>
+      <c r="I26">
+        <v>0.01488713550470851</v>
+      </c>
+      <c r="J26">
+        <v>-0.1168648529243325</v>
+      </c>
+      <c r="K26">
+        <v>-0.07386110667356556</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1642,340 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.3455533902549746</v>
+        <v>0.3028947004962729</v>
       </c>
       <c r="C28">
-        <v>-0.1022892057639606</v>
+        <v>-0.1292074620254522</v>
       </c>
       <c r="D28">
-        <v>0.03157823957846718</v>
+        <v>-0.03360007762435596</v>
       </c>
       <c r="E28">
-        <v>0.0001959339961232291</v>
+        <v>-0.01475495819872331</v>
       </c>
       <c r="F28">
-        <v>-0.0396830975378819</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.01485474699642368</v>
+      </c>
+      <c r="G28">
+        <v>0.05485521133029744</v>
+      </c>
+      <c r="H28">
+        <v>0.03957242183487399</v>
+      </c>
+      <c r="I28">
+        <v>0.09098705602950985</v>
+      </c>
+      <c r="J28">
+        <v>-0.02465778370169652</v>
+      </c>
+      <c r="K28">
+        <v>0.2122305387598366</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.004257388674198477</v>
+        <v>0.01876631634581108</v>
       </c>
       <c r="C29">
-        <v>0.07722963125078416</v>
+        <v>0.08026386167684937</v>
       </c>
       <c r="D29">
-        <v>-0.05616136964909835</v>
+        <v>0.04685778573035287</v>
       </c>
       <c r="E29">
-        <v>0.01180817552611745</v>
+        <v>0.01102552249612994</v>
       </c>
       <c r="F29">
-        <v>0.03432429379276566</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03962944450629629</v>
+      </c>
+      <c r="G29">
+        <v>0.02058318812012803</v>
+      </c>
+      <c r="H29">
+        <v>0.08295690084373758</v>
+      </c>
+      <c r="I29">
+        <v>-0.1468364833735836</v>
+      </c>
+      <c r="J29">
+        <v>-0.2483403476349558</v>
+      </c>
+      <c r="K29">
+        <v>0.04272805552794635</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.02233418598789585</v>
+        <v>0.03929238937924504</v>
       </c>
       <c r="C30">
-        <v>0.1648062340963461</v>
+        <v>0.1447960856789455</v>
       </c>
       <c r="D30">
-        <v>-0.06414728859171942</v>
+        <v>0.05337012613470217</v>
       </c>
       <c r="E30">
-        <v>-0.03512868045005768</v>
+        <v>0.01039511844536464</v>
       </c>
       <c r="F30">
-        <v>-0.02010881004829359</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.03939176282920431</v>
+      </c>
+      <c r="G30">
+        <v>0.03014637846968792</v>
+      </c>
+      <c r="H30">
+        <v>0.04089855135753295</v>
+      </c>
+      <c r="I30">
+        <v>-0.04421659179225405</v>
+      </c>
+      <c r="J30">
+        <v>-0.03288150691114666</v>
+      </c>
+      <c r="K30">
+        <v>-0.07432557890236802</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.002673198752236982</v>
+        <v>0.01631543664071608</v>
       </c>
       <c r="C31">
-        <v>0.05453266899496904</v>
+        <v>0.07477105869765693</v>
       </c>
       <c r="D31">
-        <v>-0.03621728548581785</v>
+        <v>0.04232981938931598</v>
       </c>
       <c r="E31">
-        <v>0.01069766937066459</v>
+        <v>-0.002159659985446476</v>
       </c>
       <c r="F31">
-        <v>-0.002955822578288311</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.008793454174065268</v>
+      </c>
+      <c r="G31">
+        <v>0.007352573122017557</v>
+      </c>
+      <c r="H31">
+        <v>0.03121546837901754</v>
+      </c>
+      <c r="I31">
+        <v>0.01874059344445904</v>
+      </c>
+      <c r="J31">
+        <v>-0.03333439693862422</v>
+      </c>
+      <c r="K31">
+        <v>-0.009499228114975779</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.009512769859372265</v>
+        <v>0.02182097134527295</v>
       </c>
       <c r="C32">
-        <v>0.08066531368345284</v>
+        <v>0.04887430709986772</v>
       </c>
       <c r="D32">
-        <v>-0.01734345421502316</v>
+        <v>0.02852616463600381</v>
       </c>
       <c r="E32">
-        <v>-0.1625021785214993</v>
+        <v>-0.00123306921951173</v>
       </c>
       <c r="F32">
-        <v>0.01502207982439742</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.0006336933907953357</v>
+      </c>
+      <c r="G32">
+        <v>0.1103624653690632</v>
+      </c>
+      <c r="H32">
+        <v>-0.01694375506201009</v>
+      </c>
+      <c r="I32">
+        <v>-0.05288825556885834</v>
+      </c>
+      <c r="J32">
+        <v>-0.1741173820923142</v>
+      </c>
+      <c r="K32">
+        <v>0.2669741614525982</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.009023621538902963</v>
+        <v>0.01827800174196309</v>
       </c>
       <c r="C33">
-        <v>0.09368879031273619</v>
+        <v>0.1004249787945617</v>
       </c>
       <c r="D33">
-        <v>-0.06345823264352049</v>
+        <v>0.0512001550447568</v>
       </c>
       <c r="E33">
-        <v>0.02080824498891123</v>
+        <v>0.001108975133843391</v>
       </c>
       <c r="F33">
-        <v>0.005578438919419185</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.01835181458280037</v>
+      </c>
+      <c r="G33">
+        <v>0.01221048417648462</v>
+      </c>
+      <c r="H33">
+        <v>0.01547301295702372</v>
+      </c>
+      <c r="I33">
+        <v>-0.02877530890591972</v>
+      </c>
+      <c r="J33">
+        <v>-0.05889258856604337</v>
+      </c>
+      <c r="K33">
+        <v>0.01748098241895621</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.005132517670025031</v>
+        <v>0.01841363882383096</v>
       </c>
       <c r="C34">
-        <v>0.0459090024858325</v>
+        <v>0.04894596809595437</v>
       </c>
       <c r="D34">
-        <v>-0.02477060127869027</v>
+        <v>0.02159946180829944</v>
       </c>
       <c r="E34">
-        <v>0.01344071954881481</v>
+        <v>0.01665228000391388</v>
       </c>
       <c r="F34">
-        <v>0.02254429344891179</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.00698637666915868</v>
+      </c>
+      <c r="G34">
+        <v>-0.0065939075217712</v>
+      </c>
+      <c r="H34">
+        <v>0.01828066317227025</v>
+      </c>
+      <c r="I34">
+        <v>-0.02483361096832142</v>
+      </c>
+      <c r="J34">
+        <v>0.00424552448748051</v>
+      </c>
+      <c r="K34">
+        <v>-0.01182361578111666</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.0007933777826793234</v>
+        <v>0.0126980048702006</v>
       </c>
       <c r="C35">
-        <v>0.03107607055441056</v>
+        <v>0.0498465738369062</v>
       </c>
       <c r="D35">
-        <v>-0.01554826192344722</v>
+        <v>0.02349992064689218</v>
       </c>
       <c r="E35">
-        <v>0.004877078434585723</v>
+        <v>-0.003280934403366914</v>
       </c>
       <c r="F35">
-        <v>0.01191283578857335</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0.005431053681132551</v>
+      </c>
+      <c r="G35">
+        <v>0.01031752033814769</v>
+      </c>
+      <c r="H35">
+        <v>0.06841188778150106</v>
+      </c>
+      <c r="I35">
+        <v>-0.05818383116128151</v>
+      </c>
+      <c r="J35">
+        <v>-0.1229455203546179</v>
+      </c>
+      <c r="K35">
+        <v>0.04125901376895522</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.007472299382806425</v>
+        <v>0.01439551559709517</v>
       </c>
       <c r="C36">
-        <v>0.04593885544812836</v>
+        <v>0.04436724069359419</v>
       </c>
       <c r="D36">
-        <v>-0.05185178855931621</v>
+        <v>0.03954476302522224</v>
       </c>
       <c r="E36">
-        <v>0.01451958527514629</v>
+        <v>-0.006398629007191855</v>
       </c>
       <c r="F36">
-        <v>0.006241592575157949</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.01125504437616965</v>
+      </c>
+      <c r="G36">
+        <v>0.01049495100389818</v>
+      </c>
+      <c r="H36">
+        <v>0.02680792487015801</v>
+      </c>
+      <c r="I36">
+        <v>0.00520466116313145</v>
+      </c>
+      <c r="J36">
+        <v>-0.08892467510068287</v>
+      </c>
+      <c r="K36">
+        <v>-0.02502773872028341</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +1992,165 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.0272385763197857</v>
+        <v>0.01197838848019759</v>
       </c>
       <c r="C38">
-        <v>0.0435087584087307</v>
+        <v>0.05850437880527898</v>
       </c>
       <c r="D38">
-        <v>-0.03842226410991325</v>
+        <v>0.03832981988911686</v>
       </c>
       <c r="E38">
-        <v>0.02606995487785567</v>
+        <v>-0.03131820967773514</v>
       </c>
       <c r="F38">
-        <v>0.001652870471060926</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.03475810698242488</v>
+      </c>
+      <c r="G38">
+        <v>-0.0003239770022093939</v>
+      </c>
+      <c r="H38">
+        <v>0.02510178714029266</v>
+      </c>
+      <c r="I38">
+        <v>-0.03108256363775554</v>
+      </c>
+      <c r="J38">
+        <v>-0.07510480587151215</v>
+      </c>
+      <c r="K38">
+        <v>0.07127996838609202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.004720661130653671</v>
+        <v>0.02697760986698795</v>
       </c>
       <c r="C39">
-        <v>0.1229195995762652</v>
+        <v>0.1274997787498335</v>
       </c>
       <c r="D39">
-        <v>-0.06365001808263208</v>
+        <v>0.05921072949939205</v>
       </c>
       <c r="E39">
-        <v>0.01936943192655912</v>
+        <v>0.008363795022613677</v>
       </c>
       <c r="F39">
-        <v>0.03126090109064841</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.01413359770644396</v>
+      </c>
+      <c r="G39">
+        <v>-0.01060116457675223</v>
+      </c>
+      <c r="H39">
+        <v>0.03812529069879806</v>
+      </c>
+      <c r="I39">
+        <v>-0.05524693306222044</v>
+      </c>
+      <c r="J39">
+        <v>-0.02329725837977948</v>
+      </c>
+      <c r="K39">
+        <v>-0.1009597426457002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.01492882139595759</v>
+        <v>0.02398795192984012</v>
       </c>
       <c r="C40">
-        <v>0.05278688856171863</v>
+        <v>0.0793149759624604</v>
       </c>
       <c r="D40">
-        <v>-0.02405272427373982</v>
+        <v>0.0389312537650367</v>
       </c>
       <c r="E40">
-        <v>-0.02858415509480006</v>
+        <v>0.009075842948727582</v>
       </c>
       <c r="F40">
-        <v>-0.02241485826622578</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.007499344652172169</v>
+      </c>
+      <c r="G40">
+        <v>0.02611111095334665</v>
+      </c>
+      <c r="H40">
+        <v>-0.007335520591526947</v>
+      </c>
+      <c r="I40">
+        <v>-0.1075422689353799</v>
+      </c>
+      <c r="J40">
+        <v>-0.06902462703645725</v>
+      </c>
+      <c r="K40">
+        <v>0.04899925103660692</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.01257359371235575</v>
+        <v>0.02282685673329555</v>
       </c>
       <c r="C41">
-        <v>0.02383393125904535</v>
+        <v>0.04471906942827466</v>
       </c>
       <c r="D41">
-        <v>-0.003967577967383282</v>
+        <v>0.01474210718803788</v>
       </c>
       <c r="E41">
-        <v>0.01529656936303929</v>
+        <v>0.003196898126953235</v>
       </c>
       <c r="F41">
-        <v>-0.0004205354965611534</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.004175039098389607</v>
+      </c>
+      <c r="G41">
+        <v>-0.01254909996527308</v>
+      </c>
+      <c r="H41">
+        <v>0.005403613176893769</v>
+      </c>
+      <c r="I41">
+        <v>0.003245483355232669</v>
+      </c>
+      <c r="J41">
+        <v>-0.02918446383309094</v>
+      </c>
+      <c r="K41">
+        <v>0.03133440029390585</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2167,95 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.006884317143094227</v>
+        <v>0.02074376611725583</v>
       </c>
       <c r="C43">
-        <v>0.02550764918661296</v>
+        <v>0.04523943698822854</v>
       </c>
       <c r="D43">
-        <v>-0.02459723028545396</v>
+        <v>0.02716010249189251</v>
       </c>
       <c r="E43">
-        <v>0.007935379892758165</v>
+        <v>0.002384276695842746</v>
       </c>
       <c r="F43">
-        <v>-0.006081647424865524</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.007984464629601104</v>
+      </c>
+      <c r="G43">
+        <v>-0.01089884814217492</v>
+      </c>
+      <c r="H43">
+        <v>0.01420303482790651</v>
+      </c>
+      <c r="I43">
+        <v>-0.003926294652473424</v>
+      </c>
+      <c r="J43">
+        <v>-0.03937092874232379</v>
+      </c>
+      <c r="K43">
+        <v>0.001972398704384264</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.01024657566496569</v>
+        <v>0.01975749497410082</v>
       </c>
       <c r="C44">
-        <v>0.1093325613581674</v>
+        <v>0.09872088498537504</v>
       </c>
       <c r="D44">
-        <v>-0.04794533502474534</v>
+        <v>0.06357388574927879</v>
       </c>
       <c r="E44">
-        <v>-0.03738039806701275</v>
+        <v>-0.01194049409866339</v>
       </c>
       <c r="F44">
-        <v>-0.03195651361720542</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.05364120641512611</v>
+      </c>
+      <c r="G44">
+        <v>0.03649152276830899</v>
+      </c>
+      <c r="H44">
+        <v>-0.0006988890505407996</v>
+      </c>
+      <c r="I44">
+        <v>-0.0491411419586836</v>
+      </c>
+      <c r="J44">
+        <v>-0.05343222532456808</v>
+      </c>
+      <c r="K44">
+        <v>-0.07903932467613395</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2272,235 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.005493850871913034</v>
+        <v>0.007307266919041952</v>
       </c>
       <c r="C46">
-        <v>0.06962482777664712</v>
+        <v>0.06845657931271321</v>
       </c>
       <c r="D46">
-        <v>-0.0678628649669922</v>
+        <v>0.02665014349210408</v>
       </c>
       <c r="E46">
-        <v>-6.763772992729321e-05</v>
+        <v>-0.01817179464749054</v>
       </c>
       <c r="F46">
-        <v>0.01559291524730487</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.01802422860069079</v>
+      </c>
+      <c r="G46">
+        <v>-0.006040899463997189</v>
+      </c>
+      <c r="H46">
+        <v>0.01440873574933731</v>
+      </c>
+      <c r="I46">
+        <v>-0.01517317485339929</v>
+      </c>
+      <c r="J46">
+        <v>-0.09687164767422302</v>
+      </c>
+      <c r="K46">
+        <v>-0.002137457103855153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.009574651804243144</v>
+        <v>0.02178586882643021</v>
       </c>
       <c r="C47">
-        <v>0.05738650659993835</v>
+        <v>0.06811664568011366</v>
       </c>
       <c r="D47">
-        <v>-0.04437138388152087</v>
+        <v>0.04605730883434043</v>
       </c>
       <c r="E47">
-        <v>0.03499740452635502</v>
+        <v>0.01183890099800604</v>
       </c>
       <c r="F47">
-        <v>0.03944662994785798</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.003752774476311343</v>
+      </c>
+      <c r="G47">
+        <v>-0.00543465333003279</v>
+      </c>
+      <c r="H47">
+        <v>0.02218378534559729</v>
+      </c>
+      <c r="I47">
+        <v>-0.002575484702332314</v>
+      </c>
+      <c r="J47">
+        <v>-0.06964413370741782</v>
+      </c>
+      <c r="K47">
+        <v>0.02366211802967733</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.01012060935612282</v>
+        <v>0.01809443240196304</v>
       </c>
       <c r="C48">
-        <v>0.05309833132674707</v>
+        <v>0.04757366986850937</v>
       </c>
       <c r="D48">
-        <v>-0.07313341176060544</v>
+        <v>0.05443526157680556</v>
       </c>
       <c r="E48">
-        <v>0.02961840135018186</v>
+        <v>0.01463618488657072</v>
       </c>
       <c r="F48">
-        <v>0.007447578140830025</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01784808278230947</v>
+      </c>
+      <c r="G48">
+        <v>0.006485073668363964</v>
+      </c>
+      <c r="H48">
+        <v>0.03922756099397646</v>
+      </c>
+      <c r="I48">
+        <v>0.02129182496238646</v>
+      </c>
+      <c r="J48">
+        <v>-0.1170274559392185</v>
+      </c>
+      <c r="K48">
+        <v>-0.05257091012674851</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.02531252126708864</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.05729713548482761</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.01689455812713583</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.05522495185415945</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.03315531242214758</v>
+      </c>
+      <c r="G49">
+        <v>-0.07005721747965425</v>
+      </c>
+      <c r="H49">
+        <v>0.05762915993505189</v>
+      </c>
+      <c r="I49">
+        <v>-0.08842954823996656</v>
+      </c>
+      <c r="J49">
+        <v>0.1097985011169153</v>
+      </c>
+      <c r="K49">
+        <v>-0.05979686430889287</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.001994037354173575</v>
+        <v>0.01707253432706028</v>
       </c>
       <c r="C50">
-        <v>0.05719199331811945</v>
+        <v>0.07367953586960761</v>
       </c>
       <c r="D50">
-        <v>-0.0363665824909513</v>
+        <v>0.03204251043867628</v>
       </c>
       <c r="E50">
-        <v>-0.00406524746204572</v>
+        <v>0.008201771187451277</v>
       </c>
       <c r="F50">
-        <v>-0.009791247517800156</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.02101492712887191</v>
+      </c>
+      <c r="G50">
+        <v>0.007591552656845258</v>
+      </c>
+      <c r="H50">
+        <v>0.03872187092406434</v>
+      </c>
+      <c r="I50">
+        <v>-0.01119880900598709</v>
+      </c>
+      <c r="J50">
+        <v>-0.05389289449502439</v>
+      </c>
+      <c r="K50">
+        <v>0.04832493927096593</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.001357904454263916</v>
+        <v>-0.004533656125457149</v>
       </c>
       <c r="C51">
-        <v>0.07421364130121996</v>
+        <v>0.03624834323199039</v>
       </c>
       <c r="D51">
-        <v>-0.04011634794388059</v>
+        <v>0.02391153243391863</v>
       </c>
       <c r="E51">
-        <v>-0.03022181750745962</v>
+        <v>-0.01748170207694385</v>
       </c>
       <c r="F51">
-        <v>-0.009653375313733203</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.009466920778998418</v>
+      </c>
+      <c r="G51">
+        <v>0.01862777927621644</v>
+      </c>
+      <c r="H51">
+        <v>0.02488477008081529</v>
+      </c>
+      <c r="I51">
+        <v>-0.02777182576784554</v>
+      </c>
+      <c r="J51">
+        <v>-0.1095729691591612</v>
+      </c>
+      <c r="K51">
+        <v>-0.0426141160851756</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2517,165 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.03255539343049644</v>
+        <v>0.06406113777612374</v>
       </c>
       <c r="C53">
-        <v>0.1028454025033897</v>
+        <v>0.1287653108518435</v>
       </c>
       <c r="D53">
-        <v>-0.05793813930114044</v>
+        <v>0.05817354928929058</v>
       </c>
       <c r="E53">
-        <v>0.09103256363087255</v>
+        <v>0.01499304757722091</v>
       </c>
       <c r="F53">
-        <v>-0.003228494280929734</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.04426804595353701</v>
+      </c>
+      <c r="G53">
+        <v>-0.03844395862945279</v>
+      </c>
+      <c r="H53">
+        <v>0.0179149352688145</v>
+      </c>
+      <c r="I53">
+        <v>0.09306953463624414</v>
+      </c>
+      <c r="J53">
+        <v>0.04054505931411208</v>
+      </c>
+      <c r="K53">
+        <v>0.03045319452891928</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.00527280495093467</v>
+        <v>0.01832569624524222</v>
       </c>
       <c r="C54">
-        <v>0.07289137986142839</v>
+        <v>0.07171391855144227</v>
       </c>
       <c r="D54">
-        <v>-0.02085227822253181</v>
+        <v>0.01095552726791139</v>
       </c>
       <c r="E54">
-        <v>0.04016129472517893</v>
+        <v>0.002261562098154896</v>
       </c>
       <c r="F54">
-        <v>-0.006050592086602137</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.002713073482282</v>
+      </c>
+      <c r="G54">
+        <v>-0.00130930092508547</v>
+      </c>
+      <c r="H54">
+        <v>0.009673428264463544</v>
+      </c>
+      <c r="I54">
+        <v>-0.007169587466554235</v>
+      </c>
+      <c r="J54">
+        <v>-0.06180762223686235</v>
+      </c>
+      <c r="K54">
+        <v>-0.02501622115924526</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.0168473143259193</v>
+        <v>0.03299817349818618</v>
       </c>
       <c r="C55">
-        <v>0.0539451980551487</v>
+        <v>0.08051870634078789</v>
       </c>
       <c r="D55">
-        <v>-0.05785394500992874</v>
+        <v>0.05399034516008783</v>
       </c>
       <c r="E55">
-        <v>0.06158770919691429</v>
+        <v>0.01405347132904032</v>
       </c>
       <c r="F55">
-        <v>0.0248669959732646</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.02725628903276789</v>
+      </c>
+      <c r="G55">
+        <v>-0.02728924322135568</v>
+      </c>
+      <c r="H55">
+        <v>0.002347904198946821</v>
+      </c>
+      <c r="I55">
+        <v>0.04264224512655182</v>
+      </c>
+      <c r="J55">
+        <v>0.004703129929868776</v>
+      </c>
+      <c r="K55">
+        <v>-0.005416048934937619</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.01421195260208442</v>
+        <v>0.0584760926801068</v>
       </c>
       <c r="C56">
-        <v>0.134783176360173</v>
+        <v>0.158999113769056</v>
       </c>
       <c r="D56">
-        <v>-0.06502991174379161</v>
+        <v>0.08585924095904614</v>
       </c>
       <c r="E56">
-        <v>0.05795322423838219</v>
+        <v>0.02812621720424862</v>
       </c>
       <c r="F56">
-        <v>0.01967325749988163</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.09801173737942934</v>
+      </c>
+      <c r="G56">
+        <v>-0.05315883370119179</v>
+      </c>
+      <c r="H56">
+        <v>0.04520400380783723</v>
+      </c>
+      <c r="I56">
+        <v>0.1834689436744507</v>
+      </c>
+      <c r="J56">
+        <v>0.07506351875701849</v>
+      </c>
+      <c r="K56">
+        <v>0.009400647784419139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,250 +2692,445 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.01956258240592882</v>
+        <v>0.0184290921827417</v>
       </c>
       <c r="C58">
-        <v>0.2773405763584599</v>
+        <v>0.1680084230168752</v>
       </c>
       <c r="D58">
-        <v>0.02178361733481441</v>
+        <v>0.04318521852982527</v>
       </c>
       <c r="E58">
-        <v>-0.19082958542364</v>
+        <v>-0.07883465010224336</v>
       </c>
       <c r="F58">
-        <v>-0.1515287574648045</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.2047982702318596</v>
+      </c>
+      <c r="G58">
+        <v>0.2657477686237991</v>
+      </c>
+      <c r="H58">
+        <v>0.01158176856806046</v>
+      </c>
+      <c r="I58">
+        <v>0.02395378518128896</v>
+      </c>
+      <c r="J58">
+        <v>-0.1660408211740839</v>
+      </c>
+      <c r="K58">
+        <v>-0.04029069732772399</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.2901335411523399</v>
+        <v>0.2861700407302562</v>
       </c>
       <c r="C59">
-        <v>-0.001677768345717705</v>
+        <v>-0.06199025652707118</v>
       </c>
       <c r="D59">
-        <v>0.01783412717322575</v>
+        <v>-0.01009972952099045</v>
       </c>
       <c r="E59">
-        <v>-0.06271048795407903</v>
+        <v>-0.01080897073497512</v>
       </c>
       <c r="F59">
-        <v>0.04373588137343541</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.01062232983339967</v>
+      </c>
+      <c r="G59">
+        <v>0.0610160543983491</v>
+      </c>
+      <c r="H59">
+        <v>-0.02591923238898206</v>
+      </c>
+      <c r="I59">
+        <v>0.002766450223172397</v>
+      </c>
+      <c r="J59">
+        <v>0.007069791088790758</v>
+      </c>
+      <c r="K59">
+        <v>0.03494657400271989</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.1296045981888192</v>
+        <v>0.1603296096926193</v>
       </c>
       <c r="C60">
-        <v>0.1486075521362237</v>
+        <v>0.1609084014700539</v>
       </c>
       <c r="D60">
-        <v>-0.07177331087094062</v>
+        <v>0.03322054151655787</v>
       </c>
       <c r="E60">
-        <v>0.1483903401050604</v>
+        <v>0.07712070250118339</v>
       </c>
       <c r="F60">
-        <v>0.2367619698614964</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.1175748891397281</v>
+      </c>
+      <c r="G60">
+        <v>-0.1086339888399018</v>
+      </c>
+      <c r="H60">
+        <v>-0.2479741372937369</v>
+      </c>
+      <c r="I60">
+        <v>-0.1535165161521215</v>
+      </c>
+      <c r="J60">
+        <v>0.1296335437689811</v>
+      </c>
+      <c r="K60">
+        <v>-0.0526828210256571</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.006255651733081258</v>
+        <v>0.02759956386484731</v>
       </c>
       <c r="C61">
-        <v>0.08738534575640949</v>
+        <v>0.09899882799719348</v>
       </c>
       <c r="D61">
-        <v>-0.07692060609850063</v>
+        <v>0.05455512470431882</v>
       </c>
       <c r="E61">
-        <v>0.04465114080823376</v>
+        <v>0.01733016097849189</v>
       </c>
       <c r="F61">
-        <v>0.03537885684005621</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.01535917578178978</v>
+      </c>
+      <c r="G61">
+        <v>-0.02696370353952797</v>
+      </c>
+      <c r="H61">
+        <v>0.04340777951108121</v>
+      </c>
+      <c r="I61">
+        <v>-0.03426734132419736</v>
+      </c>
+      <c r="J61">
+        <v>-0.03035288184983133</v>
+      </c>
+      <c r="K61">
+        <v>-0.03243978126872875</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.001965294457809838</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.0164881127752167</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.004790648760051597</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.03112251544580659</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>-0.02266802558663495</v>
+      </c>
+      <c r="G62">
+        <v>0.007797919583705458</v>
+      </c>
+      <c r="H62">
+        <v>0.005738109457283456</v>
+      </c>
+      <c r="I62">
+        <v>-0.02446251499582369</v>
+      </c>
+      <c r="J62">
+        <v>-0.01504621113832482</v>
+      </c>
+      <c r="K62">
+        <v>0.007372651162260957</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.001320687776110769</v>
+        <v>0.02771067639382946</v>
       </c>
       <c r="C63">
-        <v>0.05346752865773702</v>
+        <v>0.06239307047281199</v>
       </c>
       <c r="D63">
-        <v>-0.046845114134436</v>
+        <v>0.06014090177054102</v>
       </c>
       <c r="E63">
-        <v>0.009513909515137153</v>
+        <v>0.0085187258551041</v>
       </c>
       <c r="F63">
-        <v>-0.004774245154644307</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.008570825319337652</v>
+      </c>
+      <c r="G63">
+        <v>-0.005811374620325369</v>
+      </c>
+      <c r="H63">
+        <v>0.04423862037687225</v>
+      </c>
+      <c r="I63">
+        <v>-0.005301052243230731</v>
+      </c>
+      <c r="J63">
+        <v>-0.04831824615825536</v>
+      </c>
+      <c r="K63">
+        <v>-0.0148391388215407</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.003774674349523173</v>
+        <v>0.0159634357500937</v>
       </c>
       <c r="C64">
-        <v>0.09232428137889265</v>
+        <v>0.08545617748233374</v>
       </c>
       <c r="D64">
-        <v>-0.08432577777601692</v>
+        <v>0.03134255809074261</v>
       </c>
       <c r="E64">
-        <v>0.04285896055299816</v>
+        <v>0.008511196826033438</v>
       </c>
       <c r="F64">
-        <v>-0.002813795738872913</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.03674369953542784</v>
+      </c>
+      <c r="G64">
+        <v>0.0080299107691961</v>
+      </c>
+      <c r="H64">
+        <v>-0.0247075124350375</v>
+      </c>
+      <c r="I64">
+        <v>-0.03858311398481114</v>
+      </c>
+      <c r="J64">
+        <v>-0.04211716449341046</v>
+      </c>
+      <c r="K64">
+        <v>-0.06850345582907288</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.02232115079398128</v>
+        <v>0.03433586340069962</v>
       </c>
       <c r="C65">
-        <v>0.09902340474552836</v>
+        <v>0.09201605352778365</v>
       </c>
       <c r="D65">
-        <v>-0.06479635363242557</v>
+        <v>0.02038262374785122</v>
       </c>
       <c r="E65">
-        <v>0.0494777876273959</v>
+        <v>-0.01399777639901607</v>
       </c>
       <c r="F65">
-        <v>0.01707634483774849</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.006528182834856898</v>
+      </c>
+      <c r="G65">
+        <v>-0.01537556546153589</v>
+      </c>
+      <c r="H65">
+        <v>-0.03511939915692661</v>
+      </c>
+      <c r="I65">
+        <v>-0.07642842353238095</v>
+      </c>
+      <c r="J65">
+        <v>-0.01579844507088572</v>
+      </c>
+      <c r="K65">
+        <v>-0.1040248120752916</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.002839319840575189</v>
+        <v>0.02646385391743935</v>
       </c>
       <c r="C66">
-        <v>0.1756444335378103</v>
+        <v>0.1726611359671821</v>
       </c>
       <c r="D66">
-        <v>-0.0508211945083257</v>
+        <v>0.05387933745894246</v>
       </c>
       <c r="E66">
-        <v>0.002615389050688913</v>
+        <v>0.004339262941407005</v>
       </c>
       <c r="F66">
-        <v>0.03755914127493674</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.01480323325334739</v>
+      </c>
+      <c r="G66">
+        <v>0.0008766911484483306</v>
+      </c>
+      <c r="H66">
+        <v>0.0582677110510327</v>
+      </c>
+      <c r="I66">
+        <v>-0.04857188657509906</v>
+      </c>
+      <c r="J66">
+        <v>-0.03160867767157367</v>
+      </c>
+      <c r="K66">
+        <v>-0.07696129985016351</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.03068037166667337</v>
+        <v>0.02172314261716323</v>
       </c>
       <c r="C67">
-        <v>0.01849619615319529</v>
+        <v>0.05120632619883138</v>
       </c>
       <c r="D67">
-        <v>-0.05273051992642706</v>
+        <v>0.03921540040479675</v>
       </c>
       <c r="E67">
-        <v>0.05843791580129818</v>
+        <v>-0.02942403776983846</v>
       </c>
       <c r="F67">
-        <v>0.01892302200994122</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01108866588711165</v>
+      </c>
+      <c r="G67">
+        <v>-0.02641367623618822</v>
+      </c>
+      <c r="H67">
+        <v>-0.01209151342263921</v>
+      </c>
+      <c r="I67">
+        <v>-0.04083717055661576</v>
+      </c>
+      <c r="J67">
+        <v>-0.06774897117579405</v>
+      </c>
+      <c r="K67">
+        <v>0.05866427641423007</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.2986617668249867</v>
+        <v>0.2904495616441853</v>
       </c>
       <c r="C68">
-        <v>-0.00874895813317739</v>
+        <v>-0.08787311997065997</v>
       </c>
       <c r="D68">
-        <v>-0.009710731845330656</v>
+        <v>-0.02738255683686927</v>
       </c>
       <c r="E68">
-        <v>-0.0369509741147152</v>
+        <v>0.01676004304567292</v>
       </c>
       <c r="F68">
-        <v>-0.01253775582869168</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.01517692869331927</v>
+      </c>
+      <c r="G68">
+        <v>0.03661978750917035</v>
+      </c>
+      <c r="H68">
+        <v>0.0106735487564652</v>
+      </c>
+      <c r="I68">
+        <v>0.01941860797982784</v>
+      </c>
+      <c r="J68">
+        <v>-0.03448224363555823</v>
+      </c>
+      <c r="K68">
+        <v>0.0491047830700483</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.01004144999991074</v>
+        <v>0.009945733851490397</v>
       </c>
       <c r="C69">
-        <v>0.0461757295368297</v>
+        <v>0.04283981500074299</v>
       </c>
       <c r="D69">
-        <v>-0.0418742188215343</v>
+        <v>0.02436754571665509</v>
       </c>
       <c r="E69">
-        <v>0.03595776514280166</v>
+        <v>-0.01514108650601856</v>
       </c>
       <c r="F69">
-        <v>0.002977306725424222</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.006374736751192778</v>
+      </c>
+      <c r="G69">
+        <v>0.001052662504501687</v>
+      </c>
+      <c r="H69">
+        <v>-0.01398738948326795</v>
+      </c>
+      <c r="I69">
+        <v>-0.01291545655198715</v>
+      </c>
+      <c r="J69">
+        <v>-0.03238369916445314</v>
+      </c>
+      <c r="K69">
+        <v>0.03713506567996389</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,510 +3147,900 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.2862341472506312</v>
+        <v>0.2721005646397943</v>
       </c>
       <c r="C71">
-        <v>-0.03557422988631543</v>
+        <v>-0.08671402016927923</v>
       </c>
       <c r="D71">
-        <v>0.01072723615822013</v>
+        <v>-0.02163512010752415</v>
       </c>
       <c r="E71">
-        <v>-0.03490485386545074</v>
+        <v>-0.004212972861418461</v>
       </c>
       <c r="F71">
-        <v>-0.03374244236132337</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.04683451913686923</v>
+      </c>
+      <c r="G71">
+        <v>0.04865996939443175</v>
+      </c>
+      <c r="H71">
+        <v>0.01304888998175729</v>
+      </c>
+      <c r="I71">
+        <v>0.01768562342840371</v>
+      </c>
+      <c r="J71">
+        <v>-0.05359229141278726</v>
+      </c>
+      <c r="K71">
+        <v>0.1074031648057349</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.02098958796066861</v>
+        <v>0.06029175314612876</v>
       </c>
       <c r="C72">
-        <v>0.1330787142926901</v>
+        <v>0.1354333569833149</v>
       </c>
       <c r="D72">
-        <v>-0.07331276588395232</v>
+        <v>0.05138911333808606</v>
       </c>
       <c r="E72">
-        <v>0.03783398010294501</v>
+        <v>0.03915445200914074</v>
       </c>
       <c r="F72">
-        <v>-0.005195901642409211</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.02258476382556517</v>
+      </c>
+      <c r="G72">
+        <v>-0.02474574119386619</v>
+      </c>
+      <c r="H72">
+        <v>0.02525510374418127</v>
+      </c>
+      <c r="I72">
+        <v>0.001619731791279102</v>
+      </c>
+      <c r="J72">
+        <v>-0.05618721168545387</v>
+      </c>
+      <c r="K72">
+        <v>-0.1103421628386544</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.09908308569258056</v>
+        <v>0.1588189081166336</v>
       </c>
       <c r="C73">
-        <v>0.1122475051136609</v>
+        <v>0.1848119254507673</v>
       </c>
       <c r="D73">
-        <v>-0.1091803985175129</v>
+        <v>0.06895739937848304</v>
       </c>
       <c r="E73">
-        <v>0.2277497352662406</v>
+        <v>0.04337491028736407</v>
       </c>
       <c r="F73">
-        <v>0.2790932886588857</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.1273633098058428</v>
+      </c>
+      <c r="G73">
+        <v>-0.2134791431980508</v>
+      </c>
+      <c r="H73">
+        <v>-0.3723905661491646</v>
+      </c>
+      <c r="I73">
+        <v>-0.3246303001327478</v>
+      </c>
+      <c r="J73">
+        <v>0.154824515731695</v>
+      </c>
+      <c r="K73">
+        <v>0.07801485916237819</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.0196056285609948</v>
+        <v>0.04203247318636898</v>
       </c>
       <c r="C74">
-        <v>0.08122356196849433</v>
+        <v>0.09896002829405823</v>
       </c>
       <c r="D74">
-        <v>-0.07450367067074028</v>
+        <v>0.04544739254327586</v>
       </c>
       <c r="E74">
-        <v>0.0587962074327217</v>
+        <v>0.02092569777372786</v>
       </c>
       <c r="F74">
-        <v>0.02316558952754467</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.006451010388852415</v>
+      </c>
+      <c r="G74">
+        <v>-0.0289142483232968</v>
+      </c>
+      <c r="H74">
+        <v>0.001930838367610284</v>
+      </c>
+      <c r="I74">
+        <v>0.06189918151410956</v>
+      </c>
+      <c r="J74">
+        <v>-0.01622976747072769</v>
+      </c>
+      <c r="K74">
+        <v>-0.01743988772830757</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.03411881920931918</v>
+        <v>0.06881146741968232</v>
       </c>
       <c r="C75">
-        <v>0.1344622582665377</v>
+        <v>0.1622361962096752</v>
       </c>
       <c r="D75">
-        <v>-0.05306953166491962</v>
+        <v>0.08886329312043573</v>
       </c>
       <c r="E75">
-        <v>0.1120237539993949</v>
+        <v>0.03415977973238218</v>
       </c>
       <c r="F75">
-        <v>-0.01523130131352493</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.02974658949802597</v>
+      </c>
+      <c r="G75">
+        <v>-0.0963507275486518</v>
+      </c>
+      <c r="H75">
+        <v>0.1162178862368515</v>
+      </c>
+      <c r="I75">
+        <v>0.1992710088998589</v>
+      </c>
+      <c r="J75">
+        <v>0.06905511166927751</v>
+      </c>
+      <c r="K75">
+        <v>0.1605006426512011</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.01589469054715998</v>
+        <v>0.05138549037179703</v>
       </c>
       <c r="C76">
-        <v>0.0981163540684197</v>
+        <v>0.1296813885230942</v>
       </c>
       <c r="D76">
-        <v>-0.06750608490573293</v>
+        <v>0.07770967387173862</v>
       </c>
       <c r="E76">
-        <v>0.09523894818100163</v>
+        <v>0.01555637208198657</v>
       </c>
       <c r="F76">
-        <v>0.0264869985418795</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.05433070187717579</v>
+      </c>
+      <c r="G76">
+        <v>-0.06237232551047454</v>
+      </c>
+      <c r="H76">
+        <v>0.05462544079949012</v>
+      </c>
+      <c r="I76">
+        <v>0.08525457977751322</v>
+      </c>
+      <c r="J76">
+        <v>0.06619519642158124</v>
+      </c>
+      <c r="K76">
+        <v>-0.006594618161935276</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.08246876949701337</v>
+        <v>0.06083747259121419</v>
       </c>
       <c r="C77">
-        <v>0.3413046240295931</v>
+        <v>0.3939468177610609</v>
       </c>
       <c r="D77">
-        <v>0.8507860414949872</v>
+        <v>-0.9013304770343502</v>
       </c>
       <c r="E77">
-        <v>0.3091463382680962</v>
+        <v>0.03471638471467844</v>
       </c>
       <c r="F77">
-        <v>0.05937722172802049</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.005959104034447981</v>
+      </c>
+      <c r="G77">
+        <v>-0.06328940069662765</v>
+      </c>
+      <c r="H77">
+        <v>0.09876534280340292</v>
+      </c>
+      <c r="I77">
+        <v>0.00669044360941789</v>
+      </c>
+      <c r="J77">
+        <v>-0.01255613031564534</v>
+      </c>
+      <c r="K77">
+        <v>0.0308054170781255</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.02197047621652423</v>
+        <v>0.04017863397074727</v>
       </c>
       <c r="C78">
-        <v>0.1324208182172239</v>
+        <v>0.1133401289527293</v>
       </c>
       <c r="D78">
-        <v>-0.132493575792264</v>
+        <v>0.08367111952465879</v>
       </c>
       <c r="E78">
-        <v>-0.080630687530043</v>
+        <v>-0.03677460616071874</v>
       </c>
       <c r="F78">
-        <v>0.0880290443502437</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.04374789399735778</v>
+      </c>
+      <c r="G78">
+        <v>0.01185646034728961</v>
+      </c>
+      <c r="H78">
+        <v>0.04441320693013374</v>
+      </c>
+      <c r="I78">
+        <v>0.06915045144852708</v>
+      </c>
+      <c r="J78">
+        <v>-0.06378511313370737</v>
+      </c>
+      <c r="K78">
+        <v>-0.1388785777890067</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.02312538809928342</v>
+        <v>0.05933470446821567</v>
       </c>
       <c r="C79">
-        <v>0.1299698357651259</v>
+        <v>0.1344444906213735</v>
       </c>
       <c r="D79">
-        <v>-0.08200238810486868</v>
+        <v>0.06114973577631666</v>
       </c>
       <c r="E79">
-        <v>0.08481031303268267</v>
+        <v>-0.01057079372166618</v>
       </c>
       <c r="F79">
-        <v>0.005388649526343051</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>0.04103632262934376</v>
+      </c>
+      <c r="G79">
+        <v>-0.02433200039114843</v>
+      </c>
+      <c r="H79">
+        <v>0.07542320798467997</v>
+      </c>
+      <c r="I79">
+        <v>0.2394286783965421</v>
+      </c>
+      <c r="J79">
+        <v>0.01024762174863317</v>
+      </c>
+      <c r="K79">
+        <v>0.06323355193122474</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.007707378025287955</v>
+        <v>0.02155174176889479</v>
       </c>
       <c r="C80">
-        <v>0.0579450831101558</v>
+        <v>0.0444181254904973</v>
       </c>
       <c r="D80">
-        <v>-0.03196132380256173</v>
+        <v>0.03357812669224406</v>
       </c>
       <c r="E80">
-        <v>-0.02906856795823407</v>
+        <v>-0.01939205777522433</v>
       </c>
       <c r="F80">
-        <v>0.01999982901516147</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.03187146146022575</v>
+      </c>
+      <c r="G80">
+        <v>0.05579410146768043</v>
+      </c>
+      <c r="H80">
+        <v>-0.04426793428542879</v>
+      </c>
+      <c r="I80">
+        <v>-0.06769221151799423</v>
+      </c>
+      <c r="J80">
+        <v>0.01406240184514999</v>
+      </c>
+      <c r="K80">
+        <v>0.02059144422763511</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.003177294257667898</v>
+        <v>0.02026324184814971</v>
       </c>
       <c r="C81">
-        <v>0.08251391520108367</v>
+        <v>0.09925892818461401</v>
       </c>
       <c r="D81">
-        <v>-0.05328777508751655</v>
+        <v>0.05553277598575597</v>
       </c>
       <c r="E81">
-        <v>0.08578372057783616</v>
+        <v>0.008896904578674099</v>
       </c>
       <c r="F81">
-        <v>0.007394281941491618</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.03729455826579359</v>
+      </c>
+      <c r="G81">
+        <v>-0.02623906991641053</v>
+      </c>
+      <c r="H81">
+        <v>0.05448385072896133</v>
+      </c>
+      <c r="I81">
+        <v>0.1104906995273657</v>
+      </c>
+      <c r="J81">
+        <v>-0.03389264123086374</v>
+      </c>
+      <c r="K81">
+        <v>0.05551885003931426</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.01734835386356175</v>
+        <v>0.05094905872459654</v>
       </c>
       <c r="C82">
-        <v>0.07513280103868154</v>
+        <v>0.1075014315340947</v>
       </c>
       <c r="D82">
-        <v>-0.07132976942235275</v>
+        <v>0.06637737598856183</v>
       </c>
       <c r="E82">
-        <v>0.08716199532658565</v>
+        <v>0.006717249661138207</v>
       </c>
       <c r="F82">
-        <v>0.02914646886141856</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.0623356588289388</v>
+      </c>
+      <c r="G82">
+        <v>-0.05084009687942929</v>
+      </c>
+      <c r="H82">
+        <v>0.0590221909483761</v>
+      </c>
+      <c r="I82">
+        <v>0.06925074380490928</v>
+      </c>
+      <c r="J82">
+        <v>0.03780189692526509</v>
+      </c>
+      <c r="K82">
+        <v>0.008755873957730762</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.01576252837889868</v>
+        <v>9.476793451137944e-05</v>
       </c>
       <c r="C83">
-        <v>0.003350671317528393</v>
+        <v>-0.0238548270899542</v>
       </c>
       <c r="D83">
-        <v>0.1494658259501363</v>
+        <v>-0.05973867637050997</v>
       </c>
       <c r="E83">
-        <v>-0.4996125363507216</v>
+        <v>-0.002083776948128668</v>
       </c>
       <c r="F83">
-        <v>0.740754290887661</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.7589414317064889</v>
+      </c>
+      <c r="G83">
+        <v>0.5880503718532507</v>
+      </c>
+      <c r="H83">
+        <v>0.03955048317746462</v>
+      </c>
+      <c r="I83">
+        <v>-0.0330061809153345</v>
+      </c>
+      <c r="J83">
+        <v>0.112955628518547</v>
+      </c>
+      <c r="K83">
+        <v>-0.07079778949003682</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.008455357130993643</v>
+        <v>0.01530640798129404</v>
       </c>
       <c r="C84">
-        <v>0.1026388411293118</v>
+        <v>0.06378003018629462</v>
       </c>
       <c r="D84">
-        <v>-0.02084288537708752</v>
+        <v>0.08734841554258294</v>
       </c>
       <c r="E84">
-        <v>-0.05491844924105987</v>
+        <v>-0.2074873341782762</v>
       </c>
       <c r="F84">
-        <v>-0.1458304056751153</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>-0.1446166467233705</v>
+      </c>
+      <c r="G84">
+        <v>0.08113086837189205</v>
+      </c>
+      <c r="H84">
+        <v>0.6292422115169599</v>
+      </c>
+      <c r="I84">
+        <v>-0.4569009044609308</v>
+      </c>
+      <c r="J84">
+        <v>0.4567680625078457</v>
+      </c>
+      <c r="K84">
+        <v>0.1375667390083194</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.004638326885603092</v>
+        <v>0.03541725669111966</v>
       </c>
       <c r="C85">
-        <v>0.09111435560952089</v>
+        <v>0.1140607487361378</v>
       </c>
       <c r="D85">
-        <v>-0.05477753331517225</v>
+        <v>0.08074627430552879</v>
       </c>
       <c r="E85">
-        <v>0.0786150359225041</v>
+        <v>0.01717885239749855</v>
       </c>
       <c r="F85">
-        <v>0.01827662943565583</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.08319759018086943</v>
+      </c>
+      <c r="G85">
+        <v>-0.09378667969195642</v>
+      </c>
+      <c r="H85">
+        <v>0.1046317294063857</v>
+      </c>
+      <c r="I85">
+        <v>0.2240651548285625</v>
+      </c>
+      <c r="J85">
+        <v>0.09093028599054494</v>
+      </c>
+      <c r="K85">
+        <v>0.08398545069195494</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.01388498124414715</v>
+        <v>0.01670743277781589</v>
       </c>
       <c r="C86">
-        <v>0.1070827841304898</v>
+        <v>0.07818178228954098</v>
       </c>
       <c r="D86">
-        <v>-0.007006484469713236</v>
+        <v>0.03729065807403933</v>
       </c>
       <c r="E86">
-        <v>-0.02793105635549733</v>
+        <v>-0.05547000013200832</v>
       </c>
       <c r="F86">
-        <v>-0.03860359502352945</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.03677184243845866</v>
+      </c>
+      <c r="G86">
+        <v>0.07696780226226475</v>
+      </c>
+      <c r="H86">
+        <v>-0.06218716372402054</v>
+      </c>
+      <c r="I86">
+        <v>0.07998512743865141</v>
+      </c>
+      <c r="J86">
+        <v>-0.05027993022058124</v>
+      </c>
+      <c r="K86">
+        <v>0.07126563869154176</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.008469902358906628</v>
+        <v>0.02972264625911961</v>
       </c>
       <c r="C87">
-        <v>0.1630390159830579</v>
+        <v>0.1201664460555831</v>
       </c>
       <c r="D87">
-        <v>-0.03504979492277628</v>
+        <v>0.02059057666662446</v>
       </c>
       <c r="E87">
-        <v>-0.07860507729435881</v>
+        <v>0.03568483697832333</v>
       </c>
       <c r="F87">
-        <v>-0.06008520306862515</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.01896598477368659</v>
+      </c>
+      <c r="G87">
+        <v>0.03316291288449964</v>
+      </c>
+      <c r="H87">
+        <v>0.02717547869771291</v>
+      </c>
+      <c r="I87">
+        <v>-0.001346042260203752</v>
+      </c>
+      <c r="J87">
+        <v>-0.02538273321347433</v>
+      </c>
+      <c r="K87">
+        <v>-0.08138708661366806</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.008766280921632088</v>
+        <v>0.04066071974117124</v>
       </c>
       <c r="C88">
-        <v>0.03594416226034161</v>
+        <v>0.06007509580757413</v>
       </c>
       <c r="D88">
-        <v>-0.04339851938203038</v>
+        <v>0.03620756069030177</v>
       </c>
       <c r="E88">
-        <v>0.05098739679399238</v>
+        <v>0.01738780082281445</v>
       </c>
       <c r="F88">
-        <v>0.01179637074294887</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.008147287982795877</v>
+      </c>
+      <c r="G88">
+        <v>-0.02183199468137734</v>
+      </c>
+      <c r="H88">
+        <v>-0.01183460735819351</v>
+      </c>
+      <c r="I88">
+        <v>0.004600677892295903</v>
+      </c>
+      <c r="J88">
+        <v>-0.01817987374661361</v>
+      </c>
+      <c r="K88">
+        <v>-0.005126182489680192</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.4128458102594567</v>
+        <v>0.387924546847913</v>
       </c>
       <c r="C89">
-        <v>-0.0621761253962757</v>
+        <v>-0.1298599698731743</v>
       </c>
       <c r="D89">
-        <v>-0.08025267942357264</v>
+        <v>-0.0336422693483321</v>
       </c>
       <c r="E89">
-        <v>-0.08475765827517748</v>
+        <v>0.0365686688159103</v>
       </c>
       <c r="F89">
-        <v>-0.07003131055292865</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.06472210349755335</v>
+      </c>
+      <c r="G89">
+        <v>0.007813608820062186</v>
+      </c>
+      <c r="H89">
+        <v>0.08457535618785289</v>
+      </c>
+      <c r="I89">
+        <v>-0.03303552842607563</v>
+      </c>
+      <c r="J89">
+        <v>0.01367049866480679</v>
+      </c>
+      <c r="K89">
+        <v>-0.7207965119022637</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.3054490640627281</v>
+        <v>0.3146571617829056</v>
       </c>
       <c r="C90">
-        <v>-0.01384127244105045</v>
+        <v>-0.08603345768051589</v>
       </c>
       <c r="D90">
-        <v>0.01400973228858894</v>
+        <v>-0.02190103340995475</v>
       </c>
       <c r="E90">
-        <v>-0.04816406873138065</v>
+        <v>-0.009087774664100828</v>
       </c>
       <c r="F90">
-        <v>0.02385972053085257</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.01267595123493414</v>
+      </c>
+      <c r="G90">
+        <v>0.02749594012820048</v>
+      </c>
+      <c r="H90">
+        <v>0.0238722996140048</v>
+      </c>
+      <c r="I90">
+        <v>-0.002871286871601291</v>
+      </c>
+      <c r="J90">
+        <v>-0.006476478653185634</v>
+      </c>
+      <c r="K90">
+        <v>0.09257279712052517</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.02911244925413973</v>
+        <v>0.05927782158841569</v>
       </c>
       <c r="C91">
-        <v>0.07306874494896914</v>
+        <v>0.07471439536481844</v>
       </c>
       <c r="D91">
-        <v>-0.05779904739183418</v>
+        <v>0.05343073957631911</v>
       </c>
       <c r="E91">
-        <v>0.03304212043643544</v>
+        <v>0.01210249307835696</v>
       </c>
       <c r="F91">
-        <v>0.04719976930477395</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.06271510668314198</v>
+      </c>
+      <c r="G91">
+        <v>-0.01052827534568928</v>
+      </c>
+      <c r="H91">
+        <v>0.007241943083409729</v>
+      </c>
+      <c r="I91">
+        <v>0.09508143335067808</v>
+      </c>
+      <c r="J91">
+        <v>0.04103875531367631</v>
+      </c>
+      <c r="K91">
+        <v>0.02744189273302408</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.3742522081621993</v>
+        <v>0.3493521728362288</v>
       </c>
       <c r="C92">
-        <v>-0.0604915674085415</v>
+        <v>-0.1253423748742784</v>
       </c>
       <c r="D92">
-        <v>0.01445491054979798</v>
+        <v>-0.04836170096416856</v>
       </c>
       <c r="E92">
-        <v>0.009230264746047708</v>
+        <v>0.008803064640061562</v>
       </c>
       <c r="F92">
-        <v>-0.1236565754641374</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.06055851656504479</v>
+      </c>
+      <c r="G92">
+        <v>0.01770296911523155</v>
+      </c>
+      <c r="H92">
+        <v>0.02133375296191639</v>
+      </c>
+      <c r="I92">
+        <v>0.01620677605398842</v>
+      </c>
+      <c r="J92">
+        <v>-0.06419678307525832</v>
+      </c>
+      <c r="K92">
+        <v>0.130609395020274</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.3144808615687281</v>
+        <v>0.3048122039806785</v>
       </c>
       <c r="C93">
-        <v>-0.07409717145262683</v>
+        <v>-0.1286074397196285</v>
       </c>
       <c r="D93">
-        <v>0.001493721590725826</v>
+        <v>-0.008783908617302619</v>
       </c>
       <c r="E93">
-        <v>-0.05274520579195054</v>
+        <v>-0.02829753188391296</v>
       </c>
       <c r="F93">
-        <v>-0.02391956873334358</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.03350818943515785</v>
+      </c>
+      <c r="G93">
+        <v>0.04040267697834341</v>
+      </c>
+      <c r="H93">
+        <v>0.01719131625358072</v>
+      </c>
+      <c r="I93">
+        <v>0.03968860499422835</v>
+      </c>
+      <c r="J93">
+        <v>-0.0305365421479404</v>
+      </c>
+      <c r="K93">
+        <v>0.1274716528897611</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.02721707981087553</v>
+        <v>0.09002037442079797</v>
       </c>
       <c r="C94">
-        <v>0.1972910025545148</v>
+        <v>0.1706637095233639</v>
       </c>
       <c r="D94">
-        <v>-0.0812483819339417</v>
+        <v>0.1056564688821433</v>
       </c>
       <c r="E94">
-        <v>0.08387124649091836</v>
+        <v>0.007898440090072397</v>
       </c>
       <c r="F94">
-        <v>-0.08434225813404957</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.070192411683385</v>
+      </c>
+      <c r="G94">
+        <v>-0.06837516440884925</v>
+      </c>
+      <c r="H94">
+        <v>0.1208484481782084</v>
+      </c>
+      <c r="I94">
+        <v>0.4590478171269214</v>
+      </c>
+      <c r="J94">
+        <v>0.2615328270031292</v>
+      </c>
+      <c r="K94">
+        <v>0.009120193097464382</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.02757303011570553</v>
+        <v>0.04736950521684366</v>
       </c>
       <c r="C95">
-        <v>0.123592233422054</v>
+        <v>0.1360572299389173</v>
       </c>
       <c r="D95">
-        <v>-0.07124981680301072</v>
+        <v>0.0683684656957558</v>
       </c>
       <c r="E95">
-        <v>0.1500886846259089</v>
+        <v>0.02650486928638001</v>
       </c>
       <c r="F95">
-        <v>0.09678210368384892</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.0229089295228288</v>
+      </c>
+      <c r="G95">
+        <v>-0.08338433615087816</v>
+      </c>
+      <c r="H95">
+        <v>0.1006740047941634</v>
+      </c>
+      <c r="I95">
+        <v>-0.0458884344495933</v>
+      </c>
+      <c r="J95">
+        <v>0.04329797744191945</v>
+      </c>
+      <c r="K95">
+        <v>-0.07654065927472263</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +4057,130 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.001419130899548593</v>
+        <v>0.02566369443641408</v>
       </c>
       <c r="C97">
-        <v>0.0004532248524498436</v>
+        <v>0.03018096081805767</v>
       </c>
       <c r="D97">
-        <v>-0.001385482387246112</v>
+        <v>0.002909743374138779</v>
       </c>
       <c r="E97">
-        <v>0.005155842863504926</v>
+        <v>-0.04898821636923214</v>
       </c>
       <c r="F97">
-        <v>-0.002790994044358351</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>-0.0142204197035371</v>
+      </c>
+      <c r="G97">
+        <v>-0.01990903050129818</v>
+      </c>
+      <c r="H97">
+        <v>-0.01014460389063825</v>
+      </c>
+      <c r="I97">
+        <v>0.008203753328526919</v>
+      </c>
+      <c r="J97">
+        <v>-0.03615669679204472</v>
+      </c>
+      <c r="K97">
+        <v>-0.05857900559188386</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.09603730590725763</v>
+        <v>0.1410845175471869</v>
       </c>
       <c r="C98">
-        <v>0.1584713921630626</v>
+        <v>0.158412148643215</v>
       </c>
       <c r="D98">
-        <v>-0.1347490804434208</v>
+        <v>0.08127458400784766</v>
       </c>
       <c r="E98">
-        <v>0.1646999464834914</v>
+        <v>0.05044470229710353</v>
       </c>
       <c r="F98">
-        <v>0.1885283810140105</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.1452095508683072</v>
+      </c>
+      <c r="G98">
+        <v>-0.1701681063929579</v>
+      </c>
+      <c r="H98">
+        <v>-0.3127576885844641</v>
+      </c>
+      <c r="I98">
+        <v>-0.2395960301231468</v>
+      </c>
+      <c r="J98">
+        <v>0.1962236366243862</v>
+      </c>
+      <c r="K98">
+        <v>0.1001665475442976</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.02752812071982219</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.0484273656274968</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.03030184515101626</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.9509431783634874</v>
       </c>
       <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>0.09837405497145858</v>
+      </c>
+      <c r="G99">
+        <v>-0.1211541285378172</v>
+      </c>
+      <c r="H99">
+        <v>-0.1488534871719508</v>
+      </c>
+      <c r="I99">
+        <v>0.06777219548547703</v>
+      </c>
+      <c r="J99">
+        <v>-0.05055329574021394</v>
+      </c>
+      <c r="K99">
+        <v>-0.07237683752539156</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,50 +4197,95 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.004331452878380777</v>
+        <v>0.01884105185702593</v>
       </c>
       <c r="C101">
-        <v>0.07544287145015319</v>
+        <v>0.07899196820073844</v>
       </c>
       <c r="D101">
-        <v>-0.05644958711053744</v>
+        <v>0.04546942857919278</v>
       </c>
       <c r="E101">
-        <v>0.0104164610684873</v>
+        <v>0.009639928740479555</v>
       </c>
       <c r="F101">
-        <v>0.03393336628926242</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03934335502548423</v>
+      </c>
+      <c r="G101">
+        <v>0.0207141799030319</v>
+      </c>
+      <c r="H101">
+        <v>0.08254115085069416</v>
+      </c>
+      <c r="I101">
+        <v>-0.1486332312354324</v>
+      </c>
+      <c r="J101">
+        <v>-0.2461623321454456</v>
+      </c>
+      <c r="K101">
+        <v>0.04412196227715329</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>0.0007632423857819054</v>
+        <v>0.000581649230487392</v>
       </c>
       <c r="C102">
-        <v>0.005995099977871341</v>
+        <v>0.002851093470401822</v>
       </c>
       <c r="D102">
-        <v>-0.003145280500044199</v>
+        <v>-0.0002533046113628144</v>
       </c>
       <c r="E102">
-        <v>0.0102936285526308</v>
+        <v>0.001825598431564859</v>
       </c>
       <c r="F102">
-        <v>0.01111497921991118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.004766166289056669</v>
+      </c>
+      <c r="G102">
+        <v>-0.004111917773417983</v>
+      </c>
+      <c r="H102">
+        <v>0.001432666209602571</v>
+      </c>
+      <c r="I102">
+        <v>-0.0008445869552453655</v>
+      </c>
+      <c r="J102">
+        <v>-0.001417201612388625</v>
+      </c>
+      <c r="K102">
+        <v>-0.02337646421784798</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +4302,25 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4335,21 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
